--- a/data/neokruga.xlsx
+++ b/data/neokruga.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,282 +14,282 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Year05</t>
-  </si>
-  <si>
-    <t>Year10</t>
-  </si>
-  <si>
-    <t>Year11</t>
-  </si>
-  <si>
-    <t>Year12</t>
-  </si>
-  <si>
-    <t>Year13</t>
-  </si>
-  <si>
-    <t>Белгородская область</t>
-  </si>
-  <si>
-    <t>Брянская область</t>
-  </si>
-  <si>
-    <t>Владимирская область</t>
-  </si>
-  <si>
-    <t>Воронежская область</t>
-  </si>
-  <si>
-    <t>Ивановская область</t>
-  </si>
-  <si>
-    <t>Калужская область</t>
-  </si>
-  <si>
-    <t>Костромская область</t>
-  </si>
-  <si>
-    <t>Курская область</t>
-  </si>
-  <si>
-    <t>Липецкая область</t>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белгородская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брянская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимирская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воронежская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ивановская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калужская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костромская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Липецкая область</t>
   </si>
   <si>
     <t xml:space="preserve">Московская область1) </t>
   </si>
   <si>
-    <t>Орловская область</t>
-  </si>
-  <si>
-    <t>Смоленская область</t>
-  </si>
-  <si>
-    <t>Тамбовская область</t>
-  </si>
-  <si>
-    <t>Тверская область</t>
-  </si>
-  <si>
-    <t>Тульская область</t>
-  </si>
-  <si>
-    <t>Ярославская область</t>
-  </si>
-  <si>
-    <t>г. Москва1)</t>
-  </si>
-  <si>
-    <t>Республика Карелия</t>
-  </si>
-  <si>
-    <t>Республика Коми</t>
-  </si>
-  <si>
-    <t>Архангельская область</t>
-  </si>
-  <si>
-    <t>Ненецкий автономный округ</t>
-  </si>
-  <si>
-    <t>Архангельская область без автономного округа</t>
-  </si>
-  <si>
-    <t>Вологодская область</t>
-  </si>
-  <si>
-    <t>Калинингpадская область</t>
-  </si>
-  <si>
-    <t>Ленинградская область</t>
-  </si>
-  <si>
-    <t>Мурманская область</t>
-  </si>
-  <si>
-    <t>Новгородская область</t>
-  </si>
-  <si>
-    <t>Псковская область</t>
-  </si>
-  <si>
-    <t>г. Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>Республика Адыгея</t>
-  </si>
-  <si>
-    <t>Республика Калмыкия</t>
-  </si>
-  <si>
-    <t>Краснодарский край</t>
-  </si>
-  <si>
-    <t>Астраханская область</t>
-  </si>
-  <si>
-    <t>Волгоградская область</t>
-  </si>
-  <si>
-    <t>Ростовская область</t>
-  </si>
-  <si>
-    <t>Республика Дагестан</t>
+    <t xml:space="preserve">Орловская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смоленская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тамбовская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тверская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тульская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ярославская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Москва1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Карелия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Коми</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архангельская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ненецкий автономный округ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архангельская область без автономного округа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вологодская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калинингpадская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ленинградская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мурманская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новгородская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Псковская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Санкт-Петербург</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Адыгея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Калмыкия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Краснодарский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Астраханская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Волгоградская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ростовская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Дагестан</t>
   </si>
   <si>
     <t xml:space="preserve">Республика Ингушетия </t>
   </si>
   <si>
-    <t>Кабардино-Балкарская Республика</t>
-  </si>
-  <si>
-    <t>Карачаево-Черкесская Республика</t>
-  </si>
-  <si>
-    <t>Республика Северная Осетия - Алания</t>
+    <t xml:space="preserve">Кабардино-Балкарская Республика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карачаево-Черкесская Республика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Северная Осетия - Алания</t>
   </si>
   <si>
     <t xml:space="preserve">Чеченская Республика </t>
   </si>
   <si>
-    <t>Республика Башкортостан</t>
-  </si>
-  <si>
-    <t>Республика Марий Эл</t>
-  </si>
-  <si>
-    <t>Республика Мордовия</t>
-  </si>
-  <si>
-    <t>Республика Татарстан</t>
-  </si>
-  <si>
-    <t>Удмуртская Республика</t>
-  </si>
-  <si>
-    <t>Чувашская Республика</t>
-  </si>
-  <si>
-    <t>Пермский край</t>
-  </si>
-  <si>
-    <t>Кировская область</t>
-  </si>
-  <si>
-    <t>Нижегородская область</t>
-  </si>
-  <si>
-    <t>Оренбургская область</t>
-  </si>
-  <si>
-    <t>Пензенская область</t>
-  </si>
-  <si>
-    <t>Самарская область</t>
-  </si>
-  <si>
-    <t>Саратовская область</t>
-  </si>
-  <si>
-    <t>Ульяновская область</t>
-  </si>
-  <si>
-    <t>Курганская область</t>
-  </si>
-  <si>
-    <t>Свердловская область</t>
-  </si>
-  <si>
-    <t>Тюменская область</t>
-  </si>
-  <si>
-    <t>Ханты-Мансийский автономный округ - Югра</t>
-  </si>
-  <si>
-    <t>Ямало-Ненецкий автономный округ</t>
-  </si>
-  <si>
-    <t>Тюменская область без автономных округов</t>
-  </si>
-  <si>
-    <t>Челябинская область</t>
-  </si>
-  <si>
-    <t>Республика Алтай</t>
-  </si>
-  <si>
-    <t>Республика Бурятия</t>
-  </si>
-  <si>
-    <t>Республика Тыва</t>
-  </si>
-  <si>
-    <t>Республика Хакасия</t>
-  </si>
-  <si>
-    <t>Алтайский край</t>
-  </si>
-  <si>
-    <t>Забайкальский край</t>
-  </si>
-  <si>
-    <t>Красноярский край</t>
-  </si>
-  <si>
-    <t>Иркутская область</t>
-  </si>
-  <si>
-    <t>Кемеровская область</t>
-  </si>
-  <si>
-    <t>Новосибирская область</t>
-  </si>
-  <si>
-    <t>Омская область</t>
-  </si>
-  <si>
-    <t>Томская область</t>
-  </si>
-  <si>
-    <t>Республика Саха (Якутия)</t>
-  </si>
-  <si>
-    <t>Камчатский край</t>
-  </si>
-  <si>
-    <t>Приморский край</t>
-  </si>
-  <si>
-    <t>Хабаровский край</t>
-  </si>
-  <si>
-    <t>Амурская область</t>
-  </si>
-  <si>
-    <t>Магаданская область</t>
-  </si>
-  <si>
-    <t>Сахалинская область</t>
-  </si>
-  <si>
-    <t>Еврейская автономная область</t>
-  </si>
-  <si>
-    <t>Чукотский автономный округ</t>
+    <t xml:space="preserve">Республика Башкортостан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Марий Эл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Мордовия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Татарстан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удмуртская Республика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чувашская Республика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пермский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кировская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижегородская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оренбургская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пензенская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самарская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саратовская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ульяновская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курганская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свердловская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тюменская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ханты-Мансийский автономный округ - Югра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ямало-Ненецкий автономный округ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тюменская область без автономных округов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Челябинская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Алтай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Бурятия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Тыва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Хакасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алтайский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Забайкальский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красноярский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иркутская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кемеровская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новосибирская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Омская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Томская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Саха (Якутия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Камчатский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приморский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хабаровский край</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амурская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Магаданская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сахалинская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Еврейская автономная область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чукотский автономный округ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,7 +300,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -318,14 +318,295 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -354,19 +635,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="F2" t="n">
-        <v>71.0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -374,19 +655,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="F3" t="n">
-        <v>68.0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -394,19 +675,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="C4" t="n">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="D4" t="n">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="E4" t="n">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="F4" t="n">
-        <v>120.0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -414,19 +695,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="C5" t="n">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="D5" t="n">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="E5" t="n">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="F5" t="n">
-        <v>129.0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
@@ -434,19 +715,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="C6" t="n">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="E6" t="n">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
-        <v>88.0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -454,19 +735,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="C7" t="n">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="D7" t="n">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
-        <v>93.0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -474,19 +755,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
-        <v>41.0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -494,19 +775,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F9" t="n">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -514,19 +795,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="C10" t="n">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="D10" t="n">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="E10" t="n">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="F10" t="n">
-        <v>80.0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -534,19 +815,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>635.0</v>
+        <v>635</v>
       </c>
       <c r="C11" t="n">
-        <v>1309.0</v>
+        <v>1309</v>
       </c>
       <c r="D11" t="n">
-        <v>1220.0</v>
+        <v>1220</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.0</v>
+        <v>1219</v>
       </c>
       <c r="F11" t="n">
-        <v>1190.0</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="12">
@@ -554,19 +835,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="C12" t="n">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="E12" t="n">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
-        <v>54.0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -574,19 +855,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="D13" t="n">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="F13" t="n">
-        <v>62.0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -594,19 +875,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C14" t="n">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
         <v>9.2</v>
       </c>
       <c r="E14" t="n">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
-        <v>39.0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -614,19 +895,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="C15" t="n">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="D15" t="n">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E15" t="n">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>90.0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -634,19 +915,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="C16" t="n">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="D16" t="n">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="E16" t="n">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="F16" t="n">
-        <v>187.0</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
@@ -654,19 +935,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="C17" t="n">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="D17" t="n">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="E17" t="n">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="F17" t="n">
-        <v>212.0</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18">
@@ -674,19 +955,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>1959.0</v>
+        <v>1959</v>
       </c>
       <c r="C18" t="n">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="D18" t="n">
-        <v>908.0</v>
+        <v>908</v>
       </c>
       <c r="E18" t="n">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="F18" t="n">
-        <v>946.0</v>
+        <v>946</v>
       </c>
     </row>
     <row r="19">
@@ -694,19 +975,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="C19" t="n">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="D19" t="n">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E19" t="n">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="F19" t="n">
-        <v>220.0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
@@ -714,19 +995,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="C20" t="n">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="D20" t="n">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="E20" t="n">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="F20" t="n">
-        <v>106.0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -734,19 +1015,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="C21" t="n">
-        <v>416.0</v>
+        <v>416</v>
       </c>
       <c r="D21" t="n">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="E21" t="n">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="F21" t="n">
-        <v>341.0</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22">
@@ -774,19 +1055,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>464.0</v>
+        <v>464</v>
       </c>
       <c r="C23" t="n">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="D23" t="n">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="E23" t="n">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="F23" t="n">
-        <v>341.0</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24">
@@ -794,19 +1075,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="C24" t="n">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D24" t="n">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="E24" t="n">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="F24" t="n">
-        <v>148.0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25">
@@ -814,19 +1095,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="C25" t="n">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="D25" t="n">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E25" t="n">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="F25" t="n">
-        <v>102.0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -834,19 +1115,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="C26" t="n">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="D26" t="n">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="F26" t="n">
-        <v>277.0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
@@ -854,19 +1135,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="C27" t="n">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="D27" t="n">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="E27" t="n">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="F27" t="n">
-        <v>334.0</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28">
@@ -874,19 +1155,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="C28" t="n">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="D28" t="n">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="E28" t="n">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="F28" t="n">
-        <v>73.0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -894,19 +1175,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="D29" t="n">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E29" t="n">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F29" t="n">
-        <v>39.0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
@@ -914,19 +1195,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>1188.0</v>
+        <v>1188</v>
       </c>
       <c r="C30" t="n">
-        <v>1346.0</v>
+        <v>1346</v>
       </c>
       <c r="D30" t="n">
-        <v>1239.0</v>
+        <v>1239</v>
       </c>
       <c r="E30" t="n">
-        <v>1215.0</v>
+        <v>1215</v>
       </c>
       <c r="F30" t="n">
-        <v>1157.0</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="31">
@@ -934,19 +1215,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="F31" t="n">
-        <v>26.0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -954,19 +1235,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E32" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="F32" t="n">
-        <v>26.0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -974,19 +1255,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>795.0</v>
+        <v>795</v>
       </c>
       <c r="C33" t="n">
-        <v>863.0</v>
+        <v>863</v>
       </c>
       <c r="D33" t="n">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="E33" t="n">
-        <v>892.0</v>
+        <v>892</v>
       </c>
       <c r="F33" t="n">
-        <v>839.0</v>
+        <v>839</v>
       </c>
     </row>
     <row r="34">
@@ -994,19 +1275,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="C34" t="n">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D34" t="n">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="E34" t="n">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F34" t="n">
-        <v>52.0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
@@ -1014,19 +1295,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="C35" t="n">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="D35" t="n">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="E35" t="n">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="F35" t="n">
-        <v>141.0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36">
@@ -1034,19 +1315,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="C36" t="n">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="D36" t="n">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="E36" t="n">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="F36" t="n">
-        <v>236.0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37">
@@ -1054,19 +1335,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="C37" t="n">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="D37" t="n">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="E37" t="n">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="F37" t="n">
-        <v>77.0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -1094,19 +1375,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="C39" t="n">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E39" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F39" t="n">
-        <v>29.0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -1114,19 +1395,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="C40" t="n">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="D40" t="n">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="E40" t="n">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F40" t="n">
-        <v>45.0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -1134,19 +1415,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="C41" t="n">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="D41" t="n">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="E41" t="n">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="F41" t="n">
-        <v>87.0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
@@ -1154,19 +1435,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1174,19 +1455,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="C43" t="n">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="D43" t="n">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="F43" t="n">
-        <v>305.0</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
@@ -1194,19 +1475,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="C44" t="n">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="D44" t="n">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="E44" t="n">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="F44" t="n">
-        <v>55.0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -1214,19 +1495,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D45" t="n">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E45" t="n">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="F45" t="n">
-        <v>35.0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
@@ -1234,19 +1515,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>529.0</v>
+        <v>529</v>
       </c>
       <c r="C46" t="n">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="D46" t="n">
-        <v>498.0</v>
+        <v>498</v>
       </c>
       <c r="E46" t="n">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="F46" t="n">
-        <v>467.0</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47">
@@ -1254,19 +1535,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C47" t="n">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="D47" t="n">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="E47" t="n">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="F47" t="n">
-        <v>112.0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
@@ -1274,19 +1555,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="C48" t="n">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="D48" t="n">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F48" t="n">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1294,19 +1575,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="C49" t="n">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="D49" t="n">
-        <v>397.0</v>
+        <v>397</v>
       </c>
       <c r="E49" t="n">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="F49" t="n">
-        <v>410.0</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50">
@@ -1314,19 +1595,19 @@
         <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="C50" t="n">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="D50" t="n">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="E50" t="n">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="F50" t="n">
-        <v>169.0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51">
@@ -1334,19 +1615,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="C51" t="n">
-        <v>472.0</v>
+        <v>472</v>
       </c>
       <c r="D51" t="n">
-        <v>461.0</v>
+        <v>461</v>
       </c>
       <c r="E51" t="n">
-        <v>451.0</v>
+        <v>451</v>
       </c>
       <c r="F51" t="n">
-        <v>525.0</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52">
@@ -1354,19 +1635,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="C52" t="n">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="D52" t="n">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="E52" t="n">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="F52" t="n">
-        <v>120.0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -1374,19 +1655,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="C53" t="n">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="D53" t="n">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="E53" t="n">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="F53" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -1394,19 +1675,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="C54" t="n">
-        <v>397.0</v>
+        <v>397</v>
       </c>
       <c r="D54" t="n">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="E54" t="n">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="F54" t="n">
-        <v>351.0</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55">
@@ -1414,19 +1695,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="C55" t="n">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D55" t="n">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E55" t="n">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="F55" t="n">
-        <v>84.0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
@@ -1434,19 +1715,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="D56" t="n">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="E56" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="F56" t="n">
-        <v>105.0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
@@ -1454,19 +1735,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="C57" t="n">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D57" t="n">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="E57" t="n">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="F57" t="n">
-        <v>40.0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
@@ -1474,19 +1755,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>814.0</v>
+        <v>814</v>
       </c>
       <c r="C58" t="n">
-        <v>763.0</v>
+        <v>763</v>
       </c>
       <c r="D58" t="n">
-        <v>770.0</v>
+        <v>770</v>
       </c>
       <c r="E58" t="n">
-        <v>712.0</v>
+        <v>712</v>
       </c>
       <c r="F58" t="n">
-        <v>687.0</v>
+        <v>687</v>
       </c>
     </row>
     <row r="59">
@@ -1494,19 +1775,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="n">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="C59" t="n">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="D59" t="n">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="E59" t="n">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="F59" t="n">
-        <v>184.0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60">
@@ -1514,19 +1795,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C60" t="n">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D60" t="n">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="E60" t="n">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="F60" t="n">
-        <v>78.0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -1534,19 +1815,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="E61" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="F61" t="n">
-        <v>25.0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
@@ -1554,19 +1835,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="C62" t="n">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="D62" t="n">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="E62" t="n">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="F62" t="n">
-        <v>81.0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
@@ -1574,19 +1855,19 @@
         <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="C63" t="n">
-        <v>845.0</v>
+        <v>845</v>
       </c>
       <c r="D63" t="n">
-        <v>836.0</v>
+        <v>836</v>
       </c>
       <c r="E63" t="n">
-        <v>744.0</v>
+        <v>744</v>
       </c>
       <c r="F63" t="n">
-        <v>713.0</v>
+        <v>713</v>
       </c>
     </row>
     <row r="64">
@@ -1614,19 +1895,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="C65" t="n">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D65" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="F65" t="n">
-        <v>32.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -1634,16 +1915,16 @@
         <v>70</v>
       </c>
       <c r="B66" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F66" t="n">
         <v>7.5</v>
@@ -1654,19 +1935,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="n">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C67" t="n">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="D67" t="n">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E67" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="F67" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
@@ -1674,16 +1955,16 @@
         <v>72</v>
       </c>
       <c r="B68" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C68" t="n">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F68" t="n">
         <v>8.1</v>
@@ -1694,19 +1975,19 @@
         <v>73</v>
       </c>
       <c r="B69" t="n">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="C69" t="n">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="D69" t="n">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E69" t="n">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="F69" t="n">
-        <v>35.0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
@@ -1714,19 +1995,19 @@
         <v>74</v>
       </c>
       <c r="B70" t="n">
-        <v>531.0</v>
+        <v>531</v>
       </c>
       <c r="C70" t="n">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="D70" t="n">
-        <v>448.0</v>
+        <v>448</v>
       </c>
       <c r="E70" t="n">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="F70" t="n">
-        <v>391.0</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71">
@@ -1734,19 +2015,19 @@
         <v>75</v>
       </c>
       <c r="B71" t="n">
-        <v>814.0</v>
+        <v>814</v>
       </c>
       <c r="C71" t="n">
-        <v>594.0</v>
+        <v>594</v>
       </c>
       <c r="D71" t="n">
-        <v>583.0</v>
+        <v>583</v>
       </c>
       <c r="E71" t="n">
-        <v>614.0</v>
+        <v>614</v>
       </c>
       <c r="F71" t="n">
-        <v>538.0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72">
@@ -1754,19 +2035,19 @@
         <v>76</v>
       </c>
       <c r="B72" t="n">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="C72" t="n">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="D72" t="n">
-        <v>661.0</v>
+        <v>661</v>
       </c>
       <c r="E72" t="n">
-        <v>572.0</v>
+        <v>572</v>
       </c>
       <c r="F72" t="n">
-        <v>598.0</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73">
@@ -1774,19 +2055,19 @@
         <v>77</v>
       </c>
       <c r="B73" t="n">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="D73" t="n">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E73" t="n">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="F73" t="n">
-        <v>115.0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
@@ -1794,19 +2075,19 @@
         <v>78</v>
       </c>
       <c r="B74" t="n">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="C74" t="n">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="D74" t="n">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="E74" t="n">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="F74" t="n">
-        <v>159.0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75">
@@ -1814,19 +2095,19 @@
         <v>79</v>
       </c>
       <c r="B75" t="n">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E75" t="n">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F75" t="n">
-        <v>27.0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
@@ -1834,19 +2115,19 @@
         <v>80</v>
       </c>
       <c r="B76" t="n">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="C76" t="n">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="D76" t="n">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="E76" t="n">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="F76" t="n">
-        <v>76.0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77">
@@ -1854,19 +2135,19 @@
         <v>81</v>
       </c>
       <c r="B77" t="n">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C77" t="n">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D77" t="n">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E77" t="n">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F77" t="n">
-        <v>29.0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -1874,19 +2155,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="n">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="C78" t="n">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="D78" t="n">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="E78" t="n">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="F78" t="n">
-        <v>285.0</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79">
@@ -1894,19 +2175,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="n">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="C79" t="n">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="D79" t="n">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="E79" t="n">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="F79" t="n">
-        <v>178.0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80">
@@ -1914,19 +2195,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C80" t="n">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="D80" t="n">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="E80" t="n">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="F80" t="n">
-        <v>77.0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
@@ -1934,19 +2215,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C81" t="n">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="D81" t="n">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E81" t="n">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>16.0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -1954,19 +2235,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="n">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="C82" t="n">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D82" t="n">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="E82" t="n">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F82" t="n">
-        <v>33.0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -1974,19 +2255,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="n">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C83" t="n">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>14.0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -1994,22 +2275,23 @@
         <v>88</v>
       </c>
       <c r="B84" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E84" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>4.9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/neokruga.xlsx
+++ b/data/neokruga.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Липецкая область</t>
   </si>
   <si>
-    <t xml:space="preserve">Московская область1) </t>
+    <t xml:space="preserve">Московская область1)</t>
   </si>
   <si>
     <t xml:space="preserve">Орловская область</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">Республика Дагестан</t>
   </si>
   <si>
-    <t xml:space="preserve">Республика Ингушетия </t>
+    <t xml:space="preserve">Республика Ингушетия</t>
   </si>
   <si>
     <t xml:space="preserve">Кабардино-Балкарская Республика</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">Республика Северная Осетия - Алания</t>
   </si>
   <si>
-    <t xml:space="preserve">Чеченская Республика </t>
+    <t xml:space="preserve">Чеченская Республика</t>
   </si>
   <si>
     <t xml:space="preserve">Республика Башкортостан</t>
